--- a/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.19</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.67</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
@@ -1150,12 +1150,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,167 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512780</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164811</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -685,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>98.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -728,21 +658,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -761,26 +691,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1025,26 +955,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.85</t>
+          <t>99.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1068,21 +998,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0039</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1101,26 +1031,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1134,96 +1064,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600717-天津港.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,11 +486,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0.01</v>
@@ -501,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.85</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>851088</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>海通量化成长精选一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -681,36 +698,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>164825</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -785,26 +878,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>98.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -823,26 +916,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -861,26 +954,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -955,26 +1048,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>98.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -993,22 +1086,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1036,12 +1129,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1059,6 +1152,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
